--- a/interface/test_Data/testcase.xlsx
+++ b/interface/test_Data/testcase.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E5EFB5D-0D67-436E-8333-D3A1D32F3ADE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9DF0166A-558F-48A1-833B-2988968D7757}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,10 +48,6 @@
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>微博登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -187,6 +183,10 @@
   </si>
   <si>
     <t>/2/guest/cardlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +542,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -589,22 +589,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
